--- a/testData.xlsx
+++ b/testData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="2">
   <si>
     <t>Execute</t>
   </si>

--- a/testData.xlsx
+++ b/testData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="2">
   <si>
     <t>Execute</t>
   </si>
